--- a/DOC/deops_1.0.xlsx
+++ b/DOC/deops_1.0.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\david_hartmann_eu_v5.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git_repository\DavidHartmannEU\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168550EB-798C-4334-A0F3-278CC9722A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EF6E5B-6101-4A8B-BEF0-6228C49FC85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7159CF63-A892-4D1E-BC74-4FF655E5DBBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="6" xr2:uid="{7159CF63-A892-4D1E-BC74-4FF655E5DBBA}"/>
   </bookViews>
   <sheets>
-    <sheet name="MAIN" sheetId="1" r:id="rId1"/>
-    <sheet name="TODO" sheetId="4" r:id="rId2"/>
+    <sheet name="TODO" sheetId="4" r:id="rId1"/>
+    <sheet name="divers" sheetId="1" r:id="rId2"/>
     <sheet name="INFRA" sheetId="3" r:id="rId3"/>
     <sheet name="Log4Net Config" sheetId="2" r:id="rId4"/>
     <sheet name="SqlLite" sheetId="5" r:id="rId5"/>
     <sheet name="PG" sheetId="6" r:id="rId6"/>
+    <sheet name="refactoring" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
   <si>
     <t>Configuration de la solution</t>
   </si>
@@ -107,15 +108,6 @@
     <t>Modèle de données articles</t>
   </si>
   <si>
-    <t>App Blazor Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CICD dépliement auto </t>
-  </si>
-  <si>
-    <t>VM IKOULA FRONT ET BACH</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -282,13 +274,43 @@
   </si>
   <si>
     <t>Fichier DEVDOC*.*</t>
+  </si>
+  <si>
+    <t>finir DAL</t>
+  </si>
+  <si>
+    <t>finir Experience</t>
+  </si>
+  <si>
+    <t>Alimenter via EF Init la partie DOC</t>
+  </si>
+  <si>
+    <t>Présenter DOC dans MVC</t>
+  </si>
+  <si>
+    <t>Init Blazor Server</t>
+  </si>
+  <si>
+    <t>CICD</t>
+  </si>
+  <si>
+    <t>https://medium.com/@jaimin_99136/generic-repository-with-ef-core-in-net-core-8-3e7a249b439a</t>
+  </si>
+  <si>
+    <t>add generic repository</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/en-us/dotnet/architecture/microservices/microservice-ddd-cqrs-patterns/ddd-oriented-microservice</t>
+  </si>
+  <si>
+    <t>https://github.com/zkavtaskin/Domain-Driven-Design-Example</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +386,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -524,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -556,6 +586,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -919,14 +950,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFC4900-4B05-40C5-AA46-D044ABC3B406}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="B2:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E1E369-C572-4AEF-8FBA-D0000BC3C5D5}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A2:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1139,7 @@
     <row r="28" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1059,7 +1149,7 @@
     </row>
     <row r="30" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B30" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1069,421 +1159,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFC4900-4B05-40C5-AA46-D044ABC3B406}">
-  <dimension ref="B1:N22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" s="17" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K2" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="29"/>
-      <c r="H3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="23"/>
-    </row>
-    <row r="4" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="19">
-        <v>1</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="19">
-        <v>20251231</v>
-      </c>
-      <c r="E5" s="19">
-        <v>20251231</v>
-      </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="19">
-        <v>2</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="19">
-        <v>20251231</v>
-      </c>
-      <c r="E6" s="19">
-        <v>20251231</v>
-      </c>
-      <c r="F6" s="19">
-        <v>4</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-    </row>
-    <row r="8" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-    </row>
-    <row r="9" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="29"/>
-      <c r="G9" s="24"/>
-      <c r="I9" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="27"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-    </row>
-    <row r="10" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="24"/>
-    </row>
-    <row r="11" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="21">
-        <v>1</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="I11" s="21">
-        <v>1</v>
-      </c>
-      <c r="J11" s="19">
-        <v>1</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="21">
-        <v>2</v>
-      </c>
-      <c r="N11" s="24"/>
-    </row>
-    <row r="12" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="19">
-        <v>2</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="I12" s="21">
-        <v>2</v>
-      </c>
-      <c r="J12" s="19">
-        <v>1</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="21">
-        <v>1</v>
-      </c>
-      <c r="N12" s="24"/>
-    </row>
-    <row r="13" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="19">
-        <v>3</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="I13" s="21">
-        <v>2</v>
-      </c>
-      <c r="J13" s="19">
-        <v>1</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="21">
-        <v>3</v>
-      </c>
-      <c r="N13" s="24"/>
-    </row>
-    <row r="14" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="19">
-        <v>4</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19">
-        <v>2</v>
-      </c>
-      <c r="I14" s="21">
-        <v>2</v>
-      </c>
-      <c r="J14" s="19">
-        <v>1</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="21">
-        <v>4</v>
-      </c>
-      <c r="N14" s="24"/>
-    </row>
-    <row r="15" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="19">
-        <v>5</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19">
-        <v>3</v>
-      </c>
-      <c r="I15" s="21">
-        <v>2</v>
-      </c>
-      <c r="J15" s="19">
-        <v>1</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="M15" s="21">
-        <v>5</v>
-      </c>
-      <c r="N15" s="24"/>
-    </row>
-    <row r="16" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B16" s="21">
-        <v>6</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21">
-        <v>2</v>
-      </c>
-      <c r="I16" s="21">
-        <v>2</v>
-      </c>
-      <c r="J16" s="19">
-        <v>1</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="21">
-        <v>6</v>
-      </c>
-      <c r="N16" s="24"/>
-    </row>
-    <row r="17" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I17" s="21">
-        <v>2</v>
-      </c>
-      <c r="J17" s="19">
-        <v>1</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" s="21">
-        <v>7</v>
-      </c>
-      <c r="N17" s="24"/>
-    </row>
-    <row r="18" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="2:14" s="17" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B20" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" s="17" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B21" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" s="17" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B22" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1582,29 +1257,415 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA1EF35-F6B7-42DC-9F65-35A8F1C5B884}">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="17" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B13" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K14" s="28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="15" spans="2:11" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="29"/>
+      <c r="H15" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="2:11" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>77</v>
       </c>
-    </row>
+      <c r="F16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B17" s="19">
+        <v>1</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="19">
+        <v>20251231</v>
+      </c>
+      <c r="E17" s="19">
+        <v>20251231</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B18" s="19">
+        <v>2</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="19">
+        <v>20251231</v>
+      </c>
+      <c r="E18" s="19">
+        <v>20251231</v>
+      </c>
+      <c r="F18" s="19">
+        <v>4</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+    </row>
+    <row r="21" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B21" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="29"/>
+      <c r="G21" s="24"/>
+      <c r="I21" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="27"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+    </row>
+    <row r="22" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B22" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B23" s="21">
+        <v>1</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="I23" s="21">
+        <v>1</v>
+      </c>
+      <c r="J23" s="19">
+        <v>1</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" s="21">
+        <v>2</v>
+      </c>
+      <c r="N23" s="24"/>
+    </row>
+    <row r="24" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B24" s="19">
+        <v>2</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="I24" s="21">
+        <v>2</v>
+      </c>
+      <c r="J24" s="19">
+        <v>1</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M24" s="21">
+        <v>1</v>
+      </c>
+      <c r="N24" s="24"/>
+    </row>
+    <row r="25" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B25" s="19">
+        <v>3</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="I25" s="21">
+        <v>2</v>
+      </c>
+      <c r="J25" s="19">
+        <v>1</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="21">
+        <v>3</v>
+      </c>
+      <c r="N25" s="24"/>
+    </row>
+    <row r="26" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B26" s="19">
+        <v>4</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19">
+        <v>2</v>
+      </c>
+      <c r="I26" s="21">
+        <v>2</v>
+      </c>
+      <c r="J26" s="19">
+        <v>1</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="M26" s="21">
+        <v>4</v>
+      </c>
+      <c r="N26" s="24"/>
+    </row>
+    <row r="27" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B27" s="19">
+        <v>5</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19">
+        <v>3</v>
+      </c>
+      <c r="I27" s="21">
+        <v>2</v>
+      </c>
+      <c r="J27" s="19">
+        <v>1</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="21">
+        <v>5</v>
+      </c>
+      <c r="N27" s="24"/>
+    </row>
+    <row r="28" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B28" s="21">
+        <v>6</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21">
+        <v>2</v>
+      </c>
+      <c r="I28" s="21">
+        <v>2</v>
+      </c>
+      <c r="J28" s="19">
+        <v>1</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="21">
+        <v>6</v>
+      </c>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I29" s="21">
+        <v>2</v>
+      </c>
+      <c r="J29" s="19">
+        <v>1</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M29" s="21">
+        <v>7</v>
+      </c>
+      <c r="N29" s="24"/>
+    </row>
+    <row r="30" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="2:14" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1622,10 +1683,48 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EDAA83-C279-41B7-BD43-8AD9369BD296}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{083D18F0-091A-469D-9EB3-48ED91314D5F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DOC/deops_1.0.xlsx
+++ b/DOC/deops_1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git_repository\DavidHartmannEU\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EF6E5B-6101-4A8B-BEF0-6228C49FC85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BF6073-9E66-4C8A-B7A6-459005F69216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="6" xr2:uid="{7159CF63-A892-4D1E-BC74-4FF655E5DBBA}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{7159CF63-A892-4D1E-BC74-4FF655E5DBBA}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>Configuration de la solution</t>
   </si>
@@ -276,15 +276,6 @@
     <t>Fichier DEVDOC*.*</t>
   </si>
   <si>
-    <t>finir DAL</t>
-  </si>
-  <si>
-    <t>finir Experience</t>
-  </si>
-  <si>
-    <t>Alimenter via EF Init la partie DOC</t>
-  </si>
-  <si>
     <t>Présenter DOC dans MVC</t>
   </si>
   <si>
@@ -304,6 +295,33 @@
   </si>
   <si>
     <t>https://github.com/zkavtaskin/Domain-Driven-Design-Example</t>
+  </si>
+  <si>
+    <t>Finir DAL et alimentation DAL.INIT</t>
+  </si>
+  <si>
+    <t>Priorité</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>Il faut finaliser et documenter cette couche. Nous allons produire une architecture propre et documenté. Dans le dossier des deux projets nous produirons un document portant le nom du projet, et décrivant les composants et le comportement de celui-ci. Implémenter la notion de structure pour stocker les éléments référencés. Pour DAL.INIT nous alimenterons à partir des feuilles vers le tronc.</t>
+  </si>
+  <si>
+    <t>Livrable</t>
+  </si>
+  <si>
+    <t>Deux fichiers excels , 1 par projet décrivant l'architecture. Un code propre et mimimaliste pour ces deux projets.</t>
+  </si>
+  <si>
+    <t>Début</t>
+  </si>
+  <si>
+    <t>Fin</t>
   </si>
 </sst>
 </file>
@@ -554,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -587,6 +605,21 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -954,52 +987,89 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="B2:C10"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="34"/>
+    <col min="2" max="2" width="32" style="34" customWidth="1"/>
+    <col min="3" max="4" width="95.28515625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="33"/>
+    <col min="10" max="10" width="17" style="33" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.7109375" style="33" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="33"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="36">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
+        <v>99</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
+        <v>100</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1696,29 +1766,29 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
